--- a/team_specific_matrix/Long Beach St._A.xlsx
+++ b/team_specific_matrix/Long Beach St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1941391941391941</v>
+        <v>0.1943661971830986</v>
       </c>
       <c r="C2">
-        <v>0.5274725274725275</v>
+        <v>0.523943661971831</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04395604395604396</v>
+        <v>0.03943661971830986</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1611721611721612</v>
+        <v>0.1605633802816901</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07326007326007326</v>
+        <v>0.08169014084507042</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01973684210526316</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C3">
-        <v>0.03947368421052631</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05921052631578947</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7039473684210527</v>
+        <v>0.7268041237113402</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1776315789473684</v>
+        <v>0.1701030927835052</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09146341463414634</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01219512195121951</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="E6">
-        <v>0.006097560975609756</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="F6">
-        <v>0.07926829268292683</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2621951219512195</v>
+        <v>0.240174672489083</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03048780487804878</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1402439024390244</v>
+        <v>0.1441048034934498</v>
       </c>
       <c r="R6">
-        <v>0.0426829268292683</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="S6">
-        <v>0.3353658536585366</v>
+        <v>0.3362445414847162</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1441441441441441</v>
+        <v>0.136094674556213</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009009009009009009</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="F7">
-        <v>0.01801801801801802</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1891891891891892</v>
+        <v>0.1893491124260355</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03603603603603604</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1801801801801802</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="R7">
-        <v>0.06306306306306306</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="S7">
-        <v>0.3603603603603603</v>
+        <v>0.3964497041420119</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1083032490974729</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01444043321299639</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05054151624548736</v>
+        <v>0.06216216216216217</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1299638989169675</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02166064981949458</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2310469314079422</v>
+        <v>0.2324324324324324</v>
       </c>
       <c r="R8">
-        <v>0.05054151624548736</v>
+        <v>0.06216216216216217</v>
       </c>
       <c r="S8">
-        <v>0.3935018050541516</v>
+        <v>0.3891891891891892</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1098901098901099</v>
+        <v>0.1017699115044248</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02197802197802198</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05494505494505494</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07692307692307693</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01098901098901099</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2307692307692308</v>
+        <v>0.2256637168141593</v>
       </c>
       <c r="R9">
-        <v>0.06043956043956044</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="S9">
-        <v>0.4340659340659341</v>
+        <v>0.4424778761061947</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1301369863013699</v>
+        <v>0.128419452887538</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02250489236790607</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E10">
-        <v>0.001956947162426614</v>
+        <v>0.001519756838905775</v>
       </c>
       <c r="F10">
-        <v>0.07142857142857142</v>
+        <v>0.07598784194528875</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1320939334637965</v>
+        <v>0.1253799392097265</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01956947162426614</v>
+        <v>0.02051671732522796</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2348336594911937</v>
+        <v>0.2401215805471125</v>
       </c>
       <c r="R10">
-        <v>0.0538160469667319</v>
+        <v>0.05775075987841945</v>
       </c>
       <c r="S10">
-        <v>0.3336594911937378</v>
+        <v>0.3290273556231003</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.145631067961165</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1116504854368932</v>
+        <v>0.1006944444444444</v>
       </c>
       <c r="K11">
-        <v>0.1941747572815534</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="L11">
-        <v>0.5388349514563107</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009708737864077669</v>
+        <v>0.006944444444444444</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>0.7134146341463414</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.264957264957265</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K12">
-        <v>0.008547008547008548</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="L12">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03418803418803419</v>
+        <v>0.03658536585365853</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5833333333333334</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02312138728323699</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.138728323699422</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="I15">
-        <v>0.1098265895953757</v>
+        <v>0.09292035398230089</v>
       </c>
       <c r="J15">
-        <v>0.3410404624277457</v>
+        <v>0.3539823008849557</v>
       </c>
       <c r="K15">
-        <v>0.05202312138728324</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005780346820809248</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06936416184971098</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2601156069364162</v>
+        <v>0.2654867256637168</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0119047619047619</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1488095238095238</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I16">
-        <v>0.119047619047619</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="J16">
-        <v>0.4404761904761905</v>
+        <v>0.4454545454545454</v>
       </c>
       <c r="K16">
-        <v>0.07142857142857142</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01785714285714286</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="O16">
-        <v>0.06547619047619048</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02337662337662338</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1558441558441558</v>
+        <v>0.1640316205533597</v>
       </c>
       <c r="I17">
-        <v>0.1272727272727273</v>
+        <v>0.1225296442687747</v>
       </c>
       <c r="J17">
-        <v>0.4415584415584415</v>
+        <v>0.4308300395256917</v>
       </c>
       <c r="K17">
-        <v>0.07532467532467532</v>
+        <v>0.07905138339920949</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.002597402597402597</v>
+        <v>0.005928853754940711</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05194805194805195</v>
+        <v>0.05731225296442688</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1220779220779221</v>
+        <v>0.116600790513834</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0425531914893617</v>
+        <v>0.03816793893129771</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1595744680851064</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="I18">
-        <v>0.1170212765957447</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="J18">
-        <v>0.4574468085106383</v>
+        <v>0.4427480916030535</v>
       </c>
       <c r="K18">
-        <v>0.0425531914893617</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02127659574468085</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0425531914893617</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1170212765957447</v>
+        <v>0.1068702290076336</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01752464403066813</v>
+        <v>0.01998334721065778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1686746987951807</v>
+        <v>0.1698584512905912</v>
       </c>
       <c r="I19">
-        <v>0.09309967141292443</v>
+        <v>0.09159034138218151</v>
       </c>
       <c r="J19">
-        <v>0.3877327491785323</v>
+        <v>0.3830141548709409</v>
       </c>
       <c r="K19">
-        <v>0.1182913472070099</v>
+        <v>0.1223980016652789</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.009857612267250822</v>
+        <v>0.01582014987510408</v>
       </c>
       <c r="N19">
-        <v>0.002190580503833516</v>
+        <v>0.001665278934221482</v>
       </c>
       <c r="O19">
-        <v>0.07776560788608981</v>
+        <v>0.06994171523730225</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1248630887185104</v>
+        <v>0.1257285595337219</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Long Beach St._A.xlsx
+++ b/team_specific_matrix/Long Beach St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1943661971830986</v>
+        <v>0.1893333333333333</v>
       </c>
       <c r="C2">
-        <v>0.523943661971831</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03943661971830986</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1605633802816901</v>
+        <v>0.1573333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08169014084507042</v>
+        <v>0.08266666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02061855670103093</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="C3">
-        <v>0.03608247422680412</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04639175257731959</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7268041237113402</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1701030927835052</v>
+        <v>0.1778846153846154</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02702702702702703</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7027027027027027</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2702702702702703</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09606986899563319</v>
+        <v>0.09486166007905138</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01310043668122271</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="E6">
-        <v>0.004366812227074236</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="F6">
-        <v>0.08296943231441048</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.240174672489083</v>
+        <v>0.225296442687747</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03493449781659388</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1441048034934498</v>
+        <v>0.150197628458498</v>
       </c>
       <c r="R6">
-        <v>0.04803493449781659</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="S6">
-        <v>0.3362445414847162</v>
+        <v>0.3320158102766799</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.136094674556213</v>
+        <v>0.1483516483516484</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005917159763313609</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E7">
-        <v>0.01183431952662722</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F7">
-        <v>0.02366863905325444</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1893491124260355</v>
+        <v>0.1813186813186813</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03550295857988166</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1420118343195266</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="R7">
-        <v>0.05917159763313609</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="S7">
-        <v>0.3964497041420119</v>
+        <v>0.3956043956043956</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1027027027027027</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01081081081081081</v>
+        <v>0.0125</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="F8">
-        <v>0.06216216216216217</v>
+        <v>0.065</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1189189189189189</v>
+        <v>0.115</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02162162162162162</v>
+        <v>0.02</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2324324324324324</v>
+        <v>0.23</v>
       </c>
       <c r="R8">
-        <v>0.06216216216216217</v>
+        <v>0.06</v>
       </c>
       <c r="S8">
-        <v>0.3891891891891892</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1017699115044248</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02654867256637168</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05309734513274336</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08849557522123894</v>
+        <v>0.1024590163934426</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008849557522123894</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2256637168141593</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="R9">
-        <v>0.05309734513274336</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="S9">
-        <v>0.4424778761061947</v>
+        <v>0.4426229508196721</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.128419452887538</v>
+        <v>0.1268709907341411</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02127659574468085</v>
+        <v>0.02066999287241625</v>
       </c>
       <c r="E10">
-        <v>0.001519756838905775</v>
+        <v>0.00142551674982181</v>
       </c>
       <c r="F10">
-        <v>0.07598784194528875</v>
+        <v>0.07697790449037777</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1253799392097265</v>
+        <v>0.1240199572344975</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02051671732522796</v>
+        <v>0.02209550962223806</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2401215805471125</v>
+        <v>0.2394868139700642</v>
       </c>
       <c r="R10">
-        <v>0.05775075987841945</v>
+        <v>0.05773342836778332</v>
       </c>
       <c r="S10">
-        <v>0.3290273556231003</v>
+        <v>0.33071988595866</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1458333333333333</v>
+        <v>0.1414790996784566</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1006944444444444</v>
+        <v>0.09967845659163987</v>
       </c>
       <c r="K11">
-        <v>0.1979166666666667</v>
+        <v>0.1929260450160772</v>
       </c>
       <c r="L11">
-        <v>0.5486111111111112</v>
+        <v>0.5594855305466238</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006944444444444444</v>
+        <v>0.006430868167202572</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7134146341463414</v>
+        <v>0.7237569060773481</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2195121951219512</v>
+        <v>0.2154696132596685</v>
       </c>
       <c r="K12">
-        <v>0.006097560975609756</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="L12">
-        <v>0.02439024390243903</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03658536585365853</v>
+        <v>0.03314917127071823</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3703703703703703</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01769911504424779</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1415929203539823</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="I15">
-        <v>0.09292035398230089</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="J15">
-        <v>0.3539823008849557</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="K15">
-        <v>0.04424778761061947</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008849557522123894</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0752212389380531</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2654867256637168</v>
+        <v>0.2622950819672131</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01818181818181818</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1363636363636364</v>
+        <v>0.1404255319148936</v>
       </c>
       <c r="I16">
-        <v>0.1045454545454545</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="J16">
-        <v>0.4454545454545454</v>
+        <v>0.4340425531914894</v>
       </c>
       <c r="K16">
-        <v>0.08181818181818182</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01818181818181818</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="N16">
-        <v>0.004545454545454545</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="O16">
-        <v>0.05454545454545454</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1363636363636364</v>
+        <v>0.1404255319148936</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02371541501976284</v>
+        <v>0.02402957486136784</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1640316205533597</v>
+        <v>0.1626617375231054</v>
       </c>
       <c r="I17">
-        <v>0.1225296442687747</v>
+        <v>0.1275415896487985</v>
       </c>
       <c r="J17">
-        <v>0.4308300395256917</v>
+        <v>0.4343807763401109</v>
       </c>
       <c r="K17">
-        <v>0.07905138339920949</v>
+        <v>0.07948243992606285</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005928853754940711</v>
+        <v>0.007393715341959334</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05731225296442688</v>
+        <v>0.05545286506469501</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.116600790513834</v>
+        <v>0.1090573012939002</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03816793893129771</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1755725190839695</v>
+        <v>0.1751824817518248</v>
       </c>
       <c r="I18">
-        <v>0.0916030534351145</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="J18">
-        <v>0.4427480916030535</v>
+        <v>0.4379562043795621</v>
       </c>
       <c r="K18">
-        <v>0.06106870229007633</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02290076335877863</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06106870229007633</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1068702290076336</v>
+        <v>0.1094890510948905</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01998334721065778</v>
+        <v>0.02021772939346812</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1698584512905912</v>
+        <v>0.1734059097978227</v>
       </c>
       <c r="I19">
-        <v>0.09159034138218151</v>
+        <v>0.09020217729393468</v>
       </c>
       <c r="J19">
-        <v>0.3830141548709409</v>
+        <v>0.3856920684292379</v>
       </c>
       <c r="K19">
-        <v>0.1223980016652789</v>
+        <v>0.1228615863141524</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01582014987510408</v>
+        <v>0.01477449455676516</v>
       </c>
       <c r="N19">
-        <v>0.001665278934221482</v>
+        <v>0.001555209953343701</v>
       </c>
       <c r="O19">
-        <v>0.06994171523730225</v>
+        <v>0.06920684292379471</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1257285595337219</v>
+        <v>0.1220839813374806</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Long Beach St._A.xlsx
+++ b/team_specific_matrix/Long Beach St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1893333333333333</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="C2">
-        <v>0.5333333333333333</v>
+        <v>0.528395061728395</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03733333333333334</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1573333333333333</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08266666666666667</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02403846153846154</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="C3">
-        <v>0.03365384615384615</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04326923076923077</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7211538461538461</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1778846153846154</v>
+        <v>0.1801801801801802</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02380952380952381</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2619047619047619</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09486166007905138</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01976284584980237</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E6">
-        <v>0.003952569169960474</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="F6">
-        <v>0.09881422924901186</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.225296442687747</v>
+        <v>0.2185185185185185</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03162055335968379</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.150197628458498</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="R6">
-        <v>0.04347826086956522</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="S6">
-        <v>0.3320158102766799</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1483516483516484</v>
+        <v>0.1507537688442211</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01098901098901099</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E7">
-        <v>0.01098901098901099</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="F7">
-        <v>0.02197802197802198</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1813186813186813</v>
+        <v>0.1809045226130653</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03846153846153846</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1373626373626374</v>
+        <v>0.135678391959799</v>
       </c>
       <c r="R7">
-        <v>0.05494505494505494</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="S7">
-        <v>0.3956043956043956</v>
+        <v>0.407035175879397</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0125</v>
+        <v>0.01609195402298851</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0.002298850574712644</v>
       </c>
       <c r="F8">
-        <v>0.065</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.115</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0.01839080459770115</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.23</v>
+        <v>0.2275862068965517</v>
       </c>
       <c r="R8">
-        <v>0.06</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="S8">
-        <v>0.395</v>
+        <v>0.3954022988505747</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09836065573770492</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02459016393442623</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="F9">
-        <v>0.04918032786885246</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1024590163934426</v>
+        <v>0.1115384615384615</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01229508196721311</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2213114754098361</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="R9">
-        <v>0.04918032786885246</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="S9">
-        <v>0.4426229508196721</v>
+        <v>0.4384615384615385</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1268709907341411</v>
+        <v>0.1269946808510638</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02066999287241625</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E10">
-        <v>0.00142551674982181</v>
+        <v>0.001329787234042553</v>
       </c>
       <c r="F10">
-        <v>0.07697790449037777</v>
+        <v>0.07779255319148937</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1240199572344975</v>
+        <v>0.1263297872340426</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02209550962223806</v>
+        <v>0.02194148936170213</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2394868139700642</v>
+        <v>0.238031914893617</v>
       </c>
       <c r="R10">
-        <v>0.05773342836778332</v>
+        <v>0.05518617021276596</v>
       </c>
       <c r="S10">
-        <v>0.33071988595866</v>
+        <v>0.3311170212765958</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1414790996784566</v>
+        <v>0.1437308868501529</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09967845659163987</v>
+        <v>0.09480122324159021</v>
       </c>
       <c r="K11">
-        <v>0.1929260450160772</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L11">
-        <v>0.5594855305466238</v>
+        <v>0.5626911314984709</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006430868167202572</v>
+        <v>0.006116207951070336</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7237569060773481</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2154696132596685</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="K12">
-        <v>0.005524861878453038</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.02209944751381215</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03314917127071823</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3928571428571428</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1071428571428571</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01639344262295082</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.139344262295082</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="I15">
-        <v>0.09836065573770492</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="J15">
-        <v>0.3442622950819672</v>
+        <v>0.3490196078431372</v>
       </c>
       <c r="K15">
-        <v>0.04918032786885246</v>
+        <v>0.05098039215686274</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00819672131147541</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08196721311475409</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2622950819672131</v>
+        <v>0.2627450980392157</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1404255319148936</v>
+        <v>0.1553784860557769</v>
       </c>
       <c r="I16">
-        <v>0.1063829787234043</v>
+        <v>0.1035856573705179</v>
       </c>
       <c r="J16">
-        <v>0.4340425531914894</v>
+        <v>0.4342629482071713</v>
       </c>
       <c r="K16">
-        <v>0.08085106382978724</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01702127659574468</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="N16">
-        <v>0.00425531914893617</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="O16">
-        <v>0.05531914893617021</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1404255319148936</v>
+        <v>0.1354581673306773</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02402957486136784</v>
+        <v>0.02434782608695652</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1626617375231054</v>
+        <v>0.1617391304347826</v>
       </c>
       <c r="I17">
-        <v>0.1275415896487985</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="J17">
-        <v>0.4343807763401109</v>
+        <v>0.4330434782608696</v>
       </c>
       <c r="K17">
-        <v>0.07948243992606285</v>
+        <v>0.08173913043478261</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007393715341959334</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05545286506469501</v>
+        <v>0.05391304347826087</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1090573012939002</v>
+        <v>0.1060869565217391</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0364963503649635</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1751824817518248</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.08759124087591241</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="J18">
-        <v>0.4379562043795621</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="K18">
-        <v>0.072992700729927</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0218978102189781</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0583941605839416</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1094890510948905</v>
+        <v>0.1180555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02021772939346812</v>
+        <v>0.02031930333817126</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1734059097978227</v>
+        <v>0.1777939042089985</v>
       </c>
       <c r="I19">
-        <v>0.09020217729393468</v>
+        <v>0.08925979680696662</v>
       </c>
       <c r="J19">
-        <v>0.3856920684292379</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="K19">
-        <v>0.1228615863141524</v>
+        <v>0.1197387518142235</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01477449455676516</v>
+        <v>0.01669085631349782</v>
       </c>
       <c r="N19">
-        <v>0.001555209953343701</v>
+        <v>0.001451378809869376</v>
       </c>
       <c r="O19">
-        <v>0.06920684292379471</v>
+        <v>0.06894049346879536</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1220839813374806</v>
+        <v>0.1190130624092888</v>
       </c>
     </row>
   </sheetData>
